--- a/info/Stage Fright Project Plan.xlsx
+++ b/info/Stage Fright Project Plan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PS25JHill\Documents\tests\tests\info\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PS25JHill\Documents\Stage-Fright\info\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E7F2979-572D-4674-B18B-2D2165AADCC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFA7E6B5-5F86-449D-B372-A4FFD0C67967}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7500" yWindow="5400" windowWidth="25710" windowHeight="12345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="26760" yWindow="0" windowWidth="25905" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
   <si>
     <t>Task  Registration 11/1  Due 1/13</t>
   </si>
@@ -115,6 +115,15 @@
   </si>
   <si>
     <t>Aidien and Jabari</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aidien </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aidien sean </t>
+  </si>
+  <si>
+    <t>Aidien and Gabe</t>
   </si>
 </sst>
 </file>
@@ -324,7 +333,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -354,6 +363,7 @@
     <xf numFmtId="0" fontId="4" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -575,7 +585,7 @@
   <dimension ref="A1:L1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -612,10 +622,14 @@
         <v>45604</v>
       </c>
       <c r="H1" s="4">
-        <v>45629</v>
-      </c>
-      <c r="I1" s="4"/>
-      <c r="J1" s="5"/>
+        <v>45632</v>
+      </c>
+      <c r="I1" s="4">
+        <v>45639</v>
+      </c>
+      <c r="J1" s="5">
+        <v>45646</v>
+      </c>
       <c r="L1" s="6"/>
     </row>
     <row r="2" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
@@ -642,8 +656,8 @@
       <c r="F3" s="20"/>
       <c r="G3" s="24"/>
       <c r="H3" s="24"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
       <c r="K3" s="7"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -658,8 +672,8 @@
       <c r="F4" s="19"/>
       <c r="G4" s="25"/>
       <c r="H4" s="26"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26"/>
       <c r="K4" s="7"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -674,8 +688,8 @@
       <c r="F5" s="10"/>
       <c r="G5" s="21"/>
       <c r="H5" s="25"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="16"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="26"/>
       <c r="K5" s="7"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -690,8 +704,8 @@
       <c r="F6" s="22"/>
       <c r="G6" s="22"/>
       <c r="H6" s="22"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="16"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="26"/>
       <c r="K6" s="7"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -706,8 +720,8 @@
       <c r="F7" s="23"/>
       <c r="G7" s="24"/>
       <c r="H7" s="26"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
       <c r="K7" s="7"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -722,8 +736,8 @@
       <c r="F8" s="21"/>
       <c r="G8" s="21"/>
       <c r="H8" s="21"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="16"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="24"/>
       <c r="K8" s="7"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -738,8 +752,8 @@
       <c r="F9" s="12"/>
       <c r="G9" s="10"/>
       <c r="H9" s="26"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
       <c r="K9" s="7"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -754,8 +768,8 @@
       <c r="F10" s="12"/>
       <c r="G10" s="21"/>
       <c r="H10" s="21"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="16"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="24"/>
       <c r="K10" s="7"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -763,15 +777,15 @@
         <v>21</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="15"/>
       <c r="F11" s="15"/>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="16"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="24"/>
       <c r="K11" s="7"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -779,43 +793,47 @@
         <v>22</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="12"/>
       <c r="F12" s="12"/>
       <c r="G12" s="21"/>
       <c r="H12" s="10"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="16"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="24"/>
       <c r="K12" s="7"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="9"/>
+      <c r="B13" s="9" t="s">
+        <v>30</v>
+      </c>
       <c r="D13" s="8"/>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="16"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="24"/>
       <c r="K13" s="7"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="9"/>
+      <c r="B14" s="9" t="s">
+        <v>31</v>
+      </c>
       <c r="D14" s="7"/>
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
       <c r="G14" s="15"/>
       <c r="H14" s="10"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="16"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="24"/>
       <c r="K14" s="7"/>
     </row>
     <row r="15" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -971,11 +989,11 @@
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="12"/>
-      <c r="I27" s="15"/>
-      <c r="J27" s="17"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="21"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="27"/>
       <c r="K27" s="7"/>
     </row>
     <row r="28" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">

--- a/info/Stage Fright Project Plan.xlsx
+++ b/info/Stage Fright Project Plan.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PS25JHill\Documents\Stage-Fright\info\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{162311FF-75A2-4F5E-9899-24A3099D02F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5434981-1428-4ECD-91C5-6FB427A11F8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21240" yWindow="855" windowWidth="25905" windowHeight="17610" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Stage 1" sheetId="1" r:id="rId1"/>
-    <sheet name="Stage 2" sheetId="2" r:id="rId2"/>
+    <sheet name="Regionals" sheetId="1" r:id="rId1"/>
+    <sheet name="States" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="42">
   <si>
     <t>Person</t>
   </si>
@@ -136,9 +136,6 @@
     <t>Wireframe</t>
   </si>
   <si>
-    <t>BPA  Registration 9/20  Due 1/24</t>
-  </si>
-  <si>
     <t>Creating All Pages</t>
   </si>
   <si>
@@ -151,7 +148,10 @@
     <t>Tour Payment Form</t>
   </si>
   <si>
-    <t>BPA  Registration  2/7  Due 2/13</t>
+    <t>Regional BPA  Registration 9/20  Due 1/24</t>
+  </si>
+  <si>
+    <t>State BPA  Registration 1/31  Due 2/7</t>
   </si>
 </sst>
 </file>
@@ -161,18 +161,11 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -246,15 +239,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="17">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -345,14 +331,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -384,56 +364,44 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="16" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="16" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="16" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="20% - Accent1" xfId="1" builtinId="30"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -652,11 +620,13 @@
   </sheetPr>
   <dimension ref="A1:Q995"/>
   <sheetViews>
-    <sheetView zoomScale="70" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B1" activeCellId="1" sqref="A1 B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="35.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="43.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.625" customWidth="1"/>
     <col min="4" max="4" width="2.625" customWidth="1"/>
@@ -671,7 +641,7 @@
   <sheetData>
     <row r="1" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -775,7 +745,7 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>25</v>
@@ -1090,7 +1060,7 @@
     </row>
     <row r="20" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>27</v>
@@ -1111,7 +1081,7 @@
     </row>
     <row r="21" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>27</v>
@@ -1132,7 +1102,7 @@
     </row>
     <row r="22" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B22" s="6" t="s">
         <v>11</v>
@@ -2199,23 +2169,27 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C218953-5AF2-49B0-B9D2-C1FEA2D92B47}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.875" customWidth="1"/>
+    <col min="1" max="1" width="43.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+    <row r="1" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
